--- a/201708044206张成文/工作日志.xlsx
+++ b/201708044206张成文/工作日志.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>日期</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -30,6 +30,10 @@
   </si>
   <si>
     <t>确定项目实体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JDBC/类加载</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -359,7 +363,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -389,6 +393,9 @@
       <c r="A4" s="1">
         <v>43558</v>
       </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/201708044206张成文/工作日志.xlsx
+++ b/201708044206张成文/工作日志.xlsx
@@ -33,7 +33,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>JDBC/类加载</t>
+    <t>JDBC/类加载/HeidiSQL/IP:202.196.37.168/建表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -362,8 +362,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
